--- a/100runs/run078/NotionalETEOutput078.xlsx
+++ b/100runs/run078/NotionalETEOutput078.xlsx
@@ -52,7 +52,7 @@
     <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_383.MISSILE_SOMERSAULT_383</t>
+    <t>MISSILE_SOMERSAULT_223.MISSILE_SOMERSAULT_223</t>
   </si>
   <si>
     <t>MISSILE_SOMERSAULT</t>
@@ -471,22 +471,22 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>226.3712407265552</v>
+        <v>1116578.032764086</v>
       </c>
       <c r="G2">
-        <v>-109.5113575849905</v>
+        <v>4841121.987944437</v>
       </c>
       <c r="H2">
-        <v>847.8820021663005</v>
+        <v>3985225.005655406</v>
       </c>
       <c r="I2">
-        <v>-1676.306777597785</v>
+        <v>1114859.21461446</v>
       </c>
       <c r="J2">
-        <v>2001.722930168906</v>
+        <v>4843227.117701603</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984373.663479645</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,22 +506,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>226.3712407265552</v>
+        <v>1116578.032764086</v>
       </c>
       <c r="G3">
-        <v>-109.5113575849905</v>
+        <v>4841121.987944437</v>
       </c>
       <c r="H3">
-        <v>847.8820021663005</v>
+        <v>3985225.005655406</v>
       </c>
       <c r="I3">
-        <v>-1643.212018243394</v>
+        <v>1114888.828554004</v>
       </c>
       <c r="J3">
-        <v>1953.029430289044</v>
+        <v>4843178.466074763</v>
       </c>
       <c r="K3">
-        <v>214.7091028887199</v>
+        <v>3984677.459726461</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,22 +541,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>226.3712407265552</v>
+        <v>1116578.032764086</v>
       </c>
       <c r="G4">
-        <v>-109.5113575849905</v>
+        <v>4841121.987944437</v>
       </c>
       <c r="H4">
-        <v>847.8820021663005</v>
+        <v>3985225.005655406</v>
       </c>
       <c r="I4">
-        <v>-1609.302330886522</v>
+        <v>1114919.171709565</v>
       </c>
       <c r="J4">
-        <v>1904.335930409182</v>
+        <v>4843129.814447922</v>
       </c>
       <c r="K4">
-        <v>418.7118257162128</v>
+        <v>3984966.10729986</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,22 +576,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>226.3712407265552</v>
+        <v>1116578.032764086</v>
       </c>
       <c r="G5">
-        <v>-109.5113575849905</v>
+        <v>4841121.987944437</v>
       </c>
       <c r="H5">
-        <v>847.8820021663005</v>
+        <v>3985225.005655406</v>
       </c>
       <c r="I5">
-        <v>-1574.557648674826</v>
+        <v>1114950.262037417</v>
       </c>
       <c r="J5">
-        <v>1855.64243052932</v>
+        <v>4843081.162821081</v>
       </c>
       <c r="K5">
-        <v>612.0081684824804</v>
+        <v>3985239.606199841</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,22 +611,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>226.3712407265552</v>
+        <v>1116578.032764086</v>
       </c>
       <c r="G6">
-        <v>-109.5113575849905</v>
+        <v>4841121.987944437</v>
       </c>
       <c r="H6">
-        <v>847.8820021663005</v>
+        <v>3985225.005655406</v>
       </c>
       <c r="I6">
-        <v>-1538.95741062819</v>
+        <v>1114982.11793599</v>
       </c>
       <c r="J6">
-        <v>1806.948930649458</v>
+        <v>4843032.511194241</v>
       </c>
       <c r="K6">
-        <v>794.5981311875214</v>
+        <v>3985497.956426403</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,22 +646,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>226.3712407265552</v>
+        <v>1116578.032764086</v>
       </c>
       <c r="G7">
-        <v>-109.5113575849905</v>
+        <v>4841121.987944437</v>
       </c>
       <c r="H7">
-        <v>847.8820021663005</v>
+        <v>3985225.005655406</v>
       </c>
       <c r="I7">
-        <v>-1502.480549471273</v>
+        <v>1115014.758256758</v>
       </c>
       <c r="J7">
-        <v>1758.255430769596</v>
+        <v>4842983.859567402</v>
       </c>
       <c r="K7">
-        <v>966.4817138313372</v>
+        <v>3985741.157979547</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,22 +681,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>226.3712407265552</v>
+        <v>1116578.032764086</v>
       </c>
       <c r="G8">
-        <v>-109.5113575849905</v>
+        <v>4841121.987944437</v>
       </c>
       <c r="H8">
-        <v>847.8820021663005</v>
+        <v>3985225.005655406</v>
       </c>
       <c r="I8">
-        <v>-1465.105479166464</v>
+        <v>1115048.202315397</v>
       </c>
       <c r="J8">
-        <v>1709.561930889734</v>
+        <v>4842935.207940561</v>
       </c>
       <c r="K8">
-        <v>1127.658916413927</v>
+        <v>3985969.210859272</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,22 +716,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>226.3712407265552</v>
+        <v>1116578.032764086</v>
       </c>
       <c r="G9">
-        <v>-109.5113575849905</v>
+        <v>4841121.987944437</v>
       </c>
       <c r="H9">
-        <v>847.8820021663005</v>
+        <v>3985225.005655406</v>
       </c>
       <c r="I9">
-        <v>-1426.810082139833</v>
+        <v>1115082.469903211</v>
       </c>
       <c r="J9">
-        <v>1660.868431009872</v>
+        <v>4842886.556313721</v>
       </c>
       <c r="K9">
-        <v>1278.12973893529</v>
+        <v>3986182.115065579</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>226.3712407265552</v>
+        <v>1116578.032764086</v>
       </c>
       <c r="G10">
-        <v>-91.42794990579138</v>
+        <v>4841138.500754864</v>
       </c>
       <c r="H10">
-        <v>847.8820021663005</v>
+        <v>3985225.005655406</v>
       </c>
       <c r="I10">
-        <v>-1387.571696192541</v>
+        <v>1115117.58129885</v>
       </c>
       <c r="J10">
-        <v>1612.17493113001</v>
+        <v>4842837.90468688</v>
       </c>
       <c r="K10">
-        <v>1417.894181395427</v>
+        <v>3986379.870598468</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>175.6904904710912</v>
+        <v>1116529.352220855</v>
       </c>
       <c r="G11">
-        <v>-73.34454222659225</v>
+        <v>4841155.013565289</v>
       </c>
       <c r="H11">
-        <v>1044.584921223564</v>
+        <v>3985424.259896051</v>
       </c>
       <c r="I11">
-        <v>-1347.36710108995</v>
+        <v>1115153.557280305</v>
       </c>
       <c r="J11">
-        <v>1563.481431250148</v>
+        <v>4842789.253060041</v>
       </c>
       <c r="K11">
-        <v>1546.952243794338</v>
+        <v>3986562.477457939</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>145.9180921168887</v>
+        <v>1116500.754843786</v>
       </c>
       <c r="G12">
-        <v>-55.26113454739314</v>
+        <v>4841171.526375716</v>
       </c>
       <c r="H12">
-        <v>1161.751239583262</v>
+        <v>3985542.945912028</v>
       </c>
       <c r="I12">
-        <v>-1306.172504820507</v>
+        <v>1115190.419137205</v>
       </c>
       <c r="J12">
-        <v>1514.787931370287</v>
+        <v>4842740.6014332</v>
       </c>
       <c r="K12">
-        <v>1665.303926132023</v>
+        <v>3986729.935643991</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>127.123570062062</v>
+        <v>1116482.70208137</v>
       </c>
       <c r="G13">
-        <v>-37.17772686819401</v>
+        <v>4841188.039186141</v>
       </c>
       <c r="H13">
-        <v>1245.482088346216</v>
+        <v>3985627.762785966</v>
       </c>
       <c r="I13">
-        <v>-1263.963529516262</v>
+        <v>1115228.18868342</v>
       </c>
       <c r="J13">
-        <v>1466.094431490424</v>
+        <v>4842691.94980636</v>
       </c>
       <c r="K13">
-        <v>1772.949228408482</v>
+        <v>3986882.245156625</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>114.0163466724698</v>
+        <v>1116470.112158142</v>
       </c>
       <c r="G14">
-        <v>-19.09431918899489</v>
+        <v>4841204.551996567</v>
       </c>
       <c r="H14">
-        <v>1310.683255419094</v>
+        <v>3985693.80964026</v>
       </c>
       <c r="I14">
-        <v>-1220.715197026696</v>
+        <v>1115266.888269963</v>
       </c>
       <c r="J14">
-        <v>1417.400931610562</v>
+        <v>4842643.298179519</v>
       </c>
       <c r="K14">
-        <v>1869.888150623716</v>
+        <v>3987019.405995841</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>104.2379655072784</v>
+        <v>1116460.719698389</v>
       </c>
       <c r="G15">
-        <v>-1.010911509795778</v>
+        <v>4841221.064806994</v>
       </c>
       <c r="H15">
-        <v>1364.088068715295</v>
+        <v>3985747.907136989</v>
       </c>
       <c r="I15">
-        <v>-1176.401914137311</v>
+        <v>1115306.540798221</v>
       </c>
       <c r="J15">
-        <v>1368.7074317307</v>
+        <v>4842594.646552679</v>
       </c>
       <c r="K15">
-        <v>1956.120692777722</v>
+        <v>3987141.418161638</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>96.59263694654551</v>
+        <v>1116453.37610648</v>
       </c>
       <c r="G16">
-        <v>17.07249616940335</v>
+        <v>4841237.577617419</v>
       </c>
       <c r="H16">
-        <v>1409.318047214751</v>
+        <v>3985793.723767791</v>
       </c>
       <c r="I16">
-        <v>-1130.997457424247</v>
+        <v>1115347.169733508</v>
       </c>
       <c r="J16">
-        <v>1320.013931850838</v>
+        <v>4842545.994925839</v>
       </c>
       <c r="K16">
-        <v>2031.646854870503</v>
+        <v>3987248.281654018</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>90.40700946628671</v>
+        <v>1116447.434605921</v>
       </c>
       <c r="G17">
-        <v>35.15590384860248</v>
+        <v>4841254.090427846</v>
       </c>
       <c r="H17">
-        <v>1448.546815956299</v>
+        <v>3985833.461350561</v>
       </c>
       <c r="I17">
-        <v>-1084.474957735958</v>
+        <v>1115388.799118948</v>
       </c>
       <c r="J17">
-        <v>1271.320431970976</v>
+        <v>4842497.343298999</v>
       </c>
       <c r="K17">
-        <v>2096.466636902058</v>
+        <v>3987339.996472978</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>85.2707345951266</v>
+        <v>1116442.501043382</v>
       </c>
       <c r="G18">
-        <v>53.23931152780159</v>
+        <v>4841270.603238272</v>
       </c>
       <c r="H18">
-        <v>1483.181936923332</v>
+        <v>3985868.545703966</v>
       </c>
       <c r="I18">
-        <v>-1036.80688429276</v>
+        <v>1115431.453589707</v>
       </c>
       <c r="J18">
-        <v>1222.626932091114</v>
+        <v>4842448.691672158</v>
       </c>
       <c r="K18">
-        <v>2150.580038872387</v>
+        <v>3987416.562618521</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>80.91812809848496</v>
+        <v>1116438.320220334</v>
       </c>
       <c r="G19">
-        <v>71.32271920700073</v>
+        <v>4841287.116048697</v>
       </c>
       <c r="H19">
-        <v>1514.187339775385</v>
+        <v>3985899.953260248</v>
       </c>
       <c r="I19">
-        <v>-987.9650283948459</v>
+        <v>1115475.158387567</v>
       </c>
       <c r="J19">
-        <v>1173.933432211252</v>
+        <v>4842400.040045318</v>
       </c>
       <c r="K19">
-        <v>2193.98706078149</v>
+        <v>3987477.980090645</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>77.16878224351234</v>
+        <v>1116434.718849162</v>
       </c>
       <c r="G20">
-        <v>89.40612688619984</v>
+        <v>4841303.628859124</v>
       </c>
       <c r="H20">
-        <v>1542.252153712661</v>
+        <v>3985928.38208691</v>
       </c>
       <c r="I20">
-        <v>-937.9204867291297</v>
+        <v>1115519.939375866</v>
       </c>
       <c r="J20">
-        <v>1125.23993233139</v>
+        <v>4842351.388418478</v>
       </c>
       <c r="K20">
-        <v>2226.687702629366</v>
+        <v>3987524.248889351</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>73.89540957691808</v>
+        <v>1116431.574666039</v>
       </c>
       <c r="G21">
-        <v>107.489534565399</v>
+        <v>4841320.14166955</v>
       </c>
       <c r="H21">
-        <v>1567.886156743592</v>
+        <v>3985954.348574003</v>
       </c>
       <c r="I21">
-        <v>-886.6436442650296</v>
+        <v>1115565.823054805</v>
       </c>
       <c r="J21">
-        <v>1076.546432451528</v>
+        <v>4842302.736791638</v>
       </c>
       <c r="K21">
-        <v>2248.681964416017</v>
+        <v>3987555.369014638</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>71.00533089385154</v>
+        <v>1116428.798649513</v>
       </c>
       <c r="G22">
-        <v>125.5729422445981</v>
+        <v>4841336.654479976</v>
       </c>
       <c r="H22">
-        <v>1591.477074341532</v>
+        <v>3985978.245475963</v>
       </c>
       <c r="I22">
-        <v>-834.1041567290807</v>
+        <v>1115612.836577125</v>
       </c>
       <c r="J22">
-        <v>1027.852932571667</v>
+        <v>4842254.085164797</v>
       </c>
       <c r="K22">
-        <v>2259.969846141442</v>
+        <v>3987571.340466508</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>68.42926815040057</v>
+        <v>1116426.324255722</v>
       </c>
       <c r="G23">
-        <v>143.6563499237972</v>
+        <v>4841353.167290403</v>
       </c>
       <c r="H23">
-        <v>1613.326678932734</v>
+        <v>3986000.378479337</v>
       </c>
       <c r="I23">
-        <v>-780.2709326480012</v>
+        <v>1115661.00776418</v>
       </c>
       <c r="J23">
-        <v>979.1594326918045</v>
+        <v>4842205.433537957</v>
       </c>
       <c r="K23">
-        <v>2260.55134780564</v>
+        <v>3987572.163244959</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>66.11426894039865</v>
+        <v>1116424.100622122</v>
       </c>
       <c r="G24">
-        <v>161.7397576029963</v>
+        <v>4841369.680100828</v>
       </c>
       <c r="H24">
-        <v>1633.674457013061</v>
+        <v>3986020.990176864</v>
       </c>
       <c r="I24">
-        <v>-725.1121149495835</v>
+        <v>1115710.3651224</v>
       </c>
       <c r="J24">
-        <v>930.4659328119424</v>
+        <v>4842156.781911116</v>
       </c>
       <c r="K24">
-        <v>2250.426469408613</v>
+        <v>3987557.837349991</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>64.01907789850239</v>
+        <v>1116422.088121566</v>
       </c>
       <c r="G25">
-        <v>179.8231652821955</v>
+        <v>4841386.192911254</v>
       </c>
       <c r="H25">
-        <v>1652.713652375615</v>
+        <v>3986040.276318792</v>
       </c>
       <c r="I25">
-        <v>-668.5950621105236</v>
+        <v>1115760.937860159</v>
       </c>
       <c r="J25">
-        <v>881.7724329320805</v>
+        <v>4842108.130284277</v>
       </c>
       <c r="K25">
-        <v>2229.59521095036</v>
+        <v>3987528.362781606</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>62.11101523765756</v>
+        <v>1116420.255364032</v>
       </c>
       <c r="G26">
-        <v>197.9065729613946</v>
+        <v>4841402.705721681</v>
       </c>
       <c r="H26">
-        <v>1670.602454969554</v>
+        <v>3986058.397146861</v>
       </c>
       <c r="I26">
-        <v>-610.6863288400373</v>
+        <v>1115812.755905058</v>
       </c>
       <c r="J26">
-        <v>833.0789330522184</v>
+        <v>4842059.478657437</v>
       </c>
       <c r="K26">
-        <v>2198.05757243088</v>
+        <v>3987483.739539802</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>60.36381543651146</v>
+        <v>1116418.577120615</v>
       </c>
       <c r="G27">
-        <v>215.9899806405937</v>
+        <v>4841419.218532106</v>
       </c>
       <c r="H27">
-        <v>1687.471997862276</v>
+        <v>3986075.485494991</v>
       </c>
       <c r="I27">
-        <v>-551.3516462878231</v>
+        <v>1115865.849921642</v>
       </c>
       <c r="J27">
-        <v>784.3854331723563</v>
+        <v>4842010.827030595</v>
       </c>
       <c r="K27">
-        <v>2155.813553850175</v>
+        <v>3987423.96762458</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>58.7560958289621</v>
+        <v>1116417.032852556</v>
       </c>
       <c r="G28">
-        <v>234.0733883197928</v>
+        <v>4841435.731342533</v>
       </c>
       <c r="H28">
-        <v>1703.432196256137</v>
+        <v>3986091.652704033</v>
       </c>
       <c r="I28">
-        <v>-490.5559017646679</v>
+        <v>1115920.251329539</v>
       </c>
       <c r="J28">
-        <v>735.6919332924945</v>
+        <v>4841962.175403755</v>
       </c>
       <c r="K28">
-        <v>2102.863155208243</v>
+        <v>3987349.04703594</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>57.27024922132257</v>
+        <v>1116415.605647559</v>
       </c>
       <c r="G29">
-        <v>252.156795998992</v>
+        <v>4841452.244152959</v>
       </c>
       <c r="H29">
-        <v>1718.576091696886</v>
+        <v>3986106.99302232</v>
       </c>
       <c r="I29">
-        <v>-428.2631179636887</v>
+        <v>1115975.992322056</v>
       </c>
       <c r="J29">
-        <v>686.9984334126324</v>
+        <v>4841913.523776916</v>
       </c>
       <c r="K29">
-        <v>2039.206376505086</v>
+        <v>3987258.977773881</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>55.89162852892938</v>
+        <v>1116414.281436613</v>
       </c>
       <c r="G30">
-        <v>270.2402036781911</v>
+        <v>4841468.756963384</v>
       </c>
       <c r="H30">
-        <v>1732.983138404099</v>
+        <v>3986121.586934629</v>
       </c>
       <c r="I30">
-        <v>-364.4364316699208</v>
+        <v>1116033.105885233</v>
       </c>
       <c r="J30">
-        <v>638.3049335327703</v>
+        <v>4841864.872150076</v>
       </c>
       <c r="K30">
-        <v>1964.843217740702</v>
+        <v>3987153.759838404</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.60793664542882</v>
+        <v>1116413.04840794</v>
       </c>
       <c r="G31">
-        <v>288.3236113573902</v>
+        <v>4841485.269773811</v>
       </c>
       <c r="H31">
-        <v>1746.721726550336</v>
+        <v>3986135.503718181</v>
       </c>
       <c r="I31">
-        <v>-299.0380719456438</v>
+        <v>1116091.62581736</v>
       </c>
       <c r="J31">
-        <v>589.6114336529084</v>
+        <v>4841816.220523234</v>
       </c>
       <c r="K31">
-        <v>1879.773678915093</v>
+        <v>3987033.393229509</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>53.40876320008979</v>
+        <v>1116411.896562033</v>
       </c>
       <c r="G32">
-        <v>306.4070190365894</v>
+        <v>4841501.782584237</v>
       </c>
       <c r="H32">
-        <v>1759.851145694246</v>
+        <v>3986148.803431547</v>
       </c>
       <c r="I32">
-        <v>-232.0293377785442</v>
+        <v>1116151.586748979</v>
       </c>
       <c r="J32">
-        <v>540.9179337730463</v>
+        <v>4841767.568896394</v>
       </c>
       <c r="K32">
-        <v>1783.997760028256</v>
+        <v>3986897.877947195</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>52.28522818468732</v>
+        <v>1116410.817369349</v>
       </c>
       <c r="G33">
-        <v>324.4904267157884</v>
+        <v>4841518.295394663</v>
       </c>
       <c r="H33">
-        <v>1772.423131112966</v>
+        <v>3986161.538481032</v>
       </c>
       <c r="I33">
-        <v>-163.3705751794844</v>
+        <v>1116213.024163375</v>
       </c>
       <c r="J33">
-        <v>492.2244338931845</v>
+        <v>4841718.917269554</v>
       </c>
       <c r="K33">
-        <v>1677.515461080195</v>
+        <v>3986747.213991463</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>51.22970449937095</v>
+        <v>1116409.803503806</v>
       </c>
       <c r="G34">
-        <v>342.5738343949876</v>
+        <v>4841534.80820509</v>
       </c>
       <c r="H34">
-        <v>1784.483095042282</v>
+        <v>3986173.754867888</v>
       </c>
       <c r="I34">
-        <v>-93.02115371632608</v>
+        <v>1116275.97441758</v>
       </c>
       <c r="J34">
-        <v>443.5309340133224</v>
+        <v>4841670.265642715</v>
       </c>
       <c r="K34">
-        <v>1560.326782070907</v>
+        <v>3986581.401362313</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>50.23559957174012</v>
+        <v>1116408.848633019</v>
       </c>
       <c r="G35">
-        <v>360.6572420741867</v>
+        <v>4841551.321015514</v>
       </c>
       <c r="H35">
-        <v>1796.071116863649</v>
+        <v>3986185.493191344</v>
       </c>
       <c r="I35">
-        <v>-20.93944246991879</v>
+        <v>1116340.474763881</v>
       </c>
       <c r="J35">
-        <v>394.8374341334603</v>
+        <v>4841621.614015874</v>
       </c>
       <c r="K35">
-        <v>1432.431723000393</v>
+        <v>3986400.440059744</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>49.29718174490651</v>
+        <v>1116407.94725154</v>
       </c>
       <c r="G36">
-        <v>378.7406497533859</v>
+        <v>4841567.833825941</v>
       </c>
       <c r="H36">
-        <v>1807.22274674285</v>
+        <v>3986196.789462666</v>
       </c>
       <c r="I36">
-        <v>52.91721460197309</v>
+        <v>1116406.56337187</v>
       </c>
       <c r="J36">
-        <v>346.1439342535985</v>
+        <v>4841572.962389033</v>
       </c>
       <c r="K36">
-        <v>1293.830283868653</v>
+        <v>3986204.330083758</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>48.40944098183222</v>
+        <v>1116407.094547064</v>
       </c>
       <c r="G37">
-        <v>396.8240574325849</v>
+        <v>4841584.346636367</v>
       </c>
       <c r="H37">
-        <v>1817.969663367529</v>
+        <v>3986207.675771428</v>
       </c>
       <c r="I37">
-        <v>128.5925239073816</v>
+        <v>1116474.279351031</v>
       </c>
       <c r="J37">
-        <v>297.4504343737364</v>
+        <v>4841524.310762193</v>
       </c>
       <c r="K37">
-        <v>1144.522464675687</v>
+        <v>3985993.071434353</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.56797615056529</v>
+        <v>1116406.286292157</v>
       </c>
       <c r="G38">
-        <v>414.9074651117841</v>
+        <v>4841600.859446793</v>
       </c>
       <c r="H38">
-        <v>1828.34021645916</v>
+        <v>3986218.180835061</v>
       </c>
       <c r="I38">
-        <v>206.1312680844285</v>
+        <v>1116543.662773882</v>
       </c>
       <c r="J38">
-        <v>248.7569344938746</v>
+        <v>4841475.659135353</v>
       </c>
       <c r="K38">
-        <v>984.5082654214959</v>
+        <v>3985766.664111529</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>46.76890309882568</v>
+        <v>1116405.518755961</v>
       </c>
       <c r="G39">
-        <v>432.9908727909832</v>
+        <v>4841617.37225722</v>
       </c>
       <c r="H39">
-        <v>1838.35987746461</v>
+        <v>3986228.330455385</v>
       </c>
       <c r="I39">
-        <v>285.5793325024978</v>
+        <v>1116614.754699688</v>
       </c>
       <c r="J39">
-        <v>200.0634346140125</v>
+        <v>4841427.007508513</v>
       </c>
       <c r="K39">
-        <v>813.7876861060773</v>
+        <v>3985525.108115287</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>46.00877913474536</v>
+        <v>1116404.788631657</v>
       </c>
       <c r="G40">
-        <v>451.0742804701823</v>
+        <v>4841633.885067645</v>
       </c>
       <c r="H40">
-        <v>1848.051616467085</v>
+        <v>3986238.147900417</v>
       </c>
       <c r="I40">
-        <v>366.9837324159836</v>
+        <v>1116687.597198764</v>
       </c>
       <c r="J40">
-        <v>151.3699347341504</v>
+        <v>4841378.355881672</v>
       </c>
       <c r="K40">
-        <v>632.3607267294333</v>
+        <v>3985268.403445628</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>45.28454056308053</v>
+        <v>1116404.092976465</v>
       </c>
       <c r="G41">
-        <v>469.1576881493814</v>
+        <v>4841650.397878071</v>
       </c>
       <c r="H41">
-        <v>1857.436219352076</v>
+        <v>3986247.654225644</v>
       </c>
       <c r="I41">
-        <v>450.3926407866632</v>
+        <v>1116762.233377366</v>
       </c>
       <c r="J41">
-        <v>102.6764348542885</v>
+        <v>4841329.704254832</v>
       </c>
       <c r="K41">
-        <v>440.2273872915635</v>
+        <v>3984996.550102549</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.5934506915528</v>
+        <v>1116403.429161699</v>
       </c>
       <c r="G42">
-        <v>487.2410958285805</v>
+        <v>4841666.910688497</v>
       </c>
       <c r="H42">
-        <v>1866.532556244331</v>
+        <v>3986256.868545944</v>
       </c>
       <c r="I42">
-        <v>535.8554167911839</v>
+        <v>1116838.707403202</v>
       </c>
       <c r="J42">
-        <v>53.98293497442643</v>
+        <v>4841281.052627992</v>
       </c>
       <c r="K42">
-        <v>237.3876677924671</v>
+        <v>3984709.548086052</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.93305629509175</v>
+        <v>1116402.794830956</v>
       </c>
       <c r="G43">
-        <v>505.3245035077797</v>
+        <v>4841683.423498924</v>
       </c>
       <c r="H43">
-        <v>1875.357809932656</v>
+        <v>3986265.808266974</v>
       </c>
       <c r="I43">
-        <v>623.4226350305029</v>
+        <v>1116917.064531569</v>
       </c>
       <c r="J43">
-        <v>5.289435094564352</v>
+        <v>4841232.401001152</v>
       </c>
       <c r="K43">
-        <v>23.84156823214472</v>
+        <v>3984407.397396138</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>43.30115095905393</v>
+        <v>1116402.187864901</v>
       </c>
       <c r="G44">
-        <v>523.4079111869788</v>
+        <v>4841699.93630935</v>
       </c>
       <c r="H44">
-        <v>1883.92767123273</v>
+        <v>3986274.489283066</v>
       </c>
       <c r="I44">
-        <v>713.1461154586008</v>
+        <v>1116997.351132135</v>
       </c>
       <c r="J44">
-        <v>-43.40406478529751</v>
+        <v>4841183.749374311</v>
       </c>
       <c r="K44">
-        <v>-200.410911389403</v>
+        <v>3984090.098032805</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.69574405302406</v>
+        <v>1116401.606351468</v>
       </c>
       <c r="G45">
-        <v>541.4913188661778</v>
+        <v>4841716.449119776</v>
       </c>
       <c r="H45">
-        <v>1892.256506869173</v>
+        <v>3986282.926147289</v>
       </c>
       <c r="I45">
-        <v>805.0789540481527</v>
+        <v>1117079.614716378</v>
       </c>
       <c r="J45">
-        <v>-92.09756466515958</v>
+        <v>4841135.097747471</v>
       </c>
       <c r="K45">
-        <v>-435.3697710721775</v>
+        <v>3983757.649996053</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>42.11503434105852</v>
+        <v>1116401.04856051</v>
       </c>
       <c r="G46">
-        <v>559.5747265453771</v>
+        <v>4841732.961930201</v>
       </c>
       <c r="H46">
-        <v>1900.357504388918</v>
+        <v>3986291.132218236</v>
       </c>
       <c r="I46">
-        <v>899.2755542113122</v>
+        <v>1117163.903965701</v>
       </c>
       <c r="J46">
-        <v>-140.7910645450217</v>
+        <v>4841086.44612063</v>
       </c>
       <c r="K46">
-        <v>-681.0350108161784</v>
+        <v>3983410.053285883</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.55738743136872</v>
+        <v>1116400.512922139</v>
       </c>
       <c r="G47">
-        <v>577.6581342245762</v>
+        <v>4841749.474740628</v>
       </c>
       <c r="H47">
-        <v>1908.242797776613</v>
+        <v>3986299.119787275</v>
       </c>
       <c r="I47">
-        <v>995.7916589942063</v>
+        <v>1117250.268760245</v>
       </c>
       <c r="J47">
-        <v>-189.4845644248838</v>
+        <v>4841037.79449379</v>
       </c>
       <c r="K47">
-        <v>-937.4066306214052</v>
+        <v>3983047.307902296</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>41.02131642241787</v>
+        <v>1116399.998008138</v>
       </c>
       <c r="G48">
-        <v>595.7415419037752</v>
+        <v>4841765.987551054</v>
       </c>
       <c r="H48">
-        <v>1915.923576776086</v>
+        <v>3986306.900189287</v>
       </c>
       <c r="I48">
-        <v>1094.68438406419</v>
+        <v>1117338.7602084</v>
       </c>
       <c r="J48">
-        <v>-238.1780643047454</v>
+        <v>4840989.14286695</v>
       </c>
       <c r="K48">
-        <v>-1204.484630487856</v>
+        <v>3982669.413845289</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>40.50546522352484</v>
+        <v>1116399.502515935</v>
       </c>
       <c r="G49">
-        <v>613.8249495829745</v>
+        <v>4841782.50036148</v>
       </c>
       <c r="H49">
-        <v>1923.410182390106</v>
+        <v>3986314.4838994</v>
       </c>
       <c r="I49">
-        <v>1196.012251509385</v>
+        <v>1117429.430677055</v>
       </c>
       <c r="J49">
-        <v>-286.8715641846075</v>
+        <v>4840940.49124011</v>
       </c>
       <c r="K49">
-        <v>-1482.269010415534</v>
+        <v>3982276.371114864</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>40.0085941239677</v>
+        <v>1116399.025254747</v>
       </c>
       <c r="G50">
-        <v>631.9083572621736</v>
+        <v>4841799.013171906</v>
       </c>
       <c r="H50">
-        <v>1930.712190603835</v>
+        <v>3986321.880617806</v>
       </c>
       <c r="I50">
-        <v>1299.835224470488</v>
+        <v>1117522.333822585</v>
       </c>
       <c r="J50">
-        <v>-335.5650640644695</v>
+        <v>4840891.839613269</v>
       </c>
       <c r="K50">
-        <v>-1770.759770404439</v>
+        <v>3981868.179711021</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.52956726098941</v>
+        <v>1116398.565133542</v>
       </c>
       <c r="G51">
-        <v>649.9917649413726</v>
+        <v>4841815.525982332</v>
       </c>
       <c r="H51">
-        <v>1937.838486032708</v>
+        <v>3986329.099344356</v>
       </c>
       <c r="I51">
-        <v>1406.214742625375</v>
+        <v>1117617.524622605</v>
       </c>
       <c r="J51">
-        <v>-384.2585639443316</v>
+        <v>4840843.187986429</v>
       </c>
       <c r="K51">
-        <v>-2069.95691045457</v>
+        <v>3981444.83963376</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>39.06734169835373</v>
+        <v>1116398.121150543</v>
       </c>
       <c r="G52">
-        <v>668.0751726205718</v>
+        <v>4841832.038792758</v>
       </c>
       <c r="H52">
-        <v>1944.797326915641</v>
+        <v>3986336.148444402</v>
       </c>
       <c r="I52">
-        <v>1515.213758547465</v>
+        <v>1117715.059408501</v>
       </c>
       <c r="J52">
-        <v>-432.9520638241937</v>
+        <v>4840794.53635959</v>
       </c>
       <c r="K52">
-        <v>-2379.860430565927</v>
+        <v>3981006.350883081</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.62095787645791</v>
+        <v>1116397.692384062</v>
       </c>
       <c r="G53">
-        <v>686.1585802997708</v>
+        <v>4841848.551603184</v>
       </c>
       <c r="H53">
-        <v>1951.596402646052</v>
+        <v>3986343.035707074</v>
       </c>
       <c r="I53">
-        <v>1626.896774959377</v>
+        <v>1117814.99589877</v>
       </c>
       <c r="J53">
-        <v>-481.6455637040553</v>
+        <v>4840745.884732749</v>
       </c>
       <c r="K53">
-        <v>-2700.470330738508</v>
+        <v>3980552.713458983</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>38.18953123501359</v>
+        <v>1116397.277984449</v>
       </c>
       <c r="G54">
-        <v>704.24198797897</v>
+        <v>4841865.064413611</v>
       </c>
       <c r="H54">
-        <v>1958.242884845784</v>
+        <v>3986349.768397011</v>
       </c>
       <c r="I54">
-        <v>1741.329882903944</v>
+        <v>1117917.393233172</v>
       </c>
       <c r="J54">
-        <v>-530.3390635839174</v>
+        <v>4840697.233105908</v>
       </c>
       <c r="K54">
-        <v>-3031.786610972317</v>
+        <v>3980083.927361467</v>
       </c>
     </row>
   </sheetData>
